--- a/Data Gathered and Results/Test #3 Elitism (4,10,20 Percent)/Results.xlsx
+++ b/Data Gathered and Results/Test #3 Elitism (4,10,20 Percent)/Results.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mark\git\SET10107Coursework\Data\Test #3 Elitism (4,10,20 Percent)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mark\git\SET10107Coursework\Data Gathered and Results\Test #3 Elitism (4,10,20 Percent)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="0" windowWidth="16065" windowHeight="11610"/>
+    <workbookView xWindow="12870" yWindow="0" windowWidth="16065" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="Initial benchmark" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="42">
   <si>
     <t>A</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>Best Elitism</t>
+  </si>
+  <si>
+    <t>Best Average Elitism</t>
   </si>
 </sst>
 </file>
@@ -625,17 +628,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -893,31 +897,31 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>5.4474855261583979E-2</c:v>
+                  <c:v>5.7377994636172408E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2736095191794602E-4</c:v>
+                  <c:v>2.7864278204276925E-4</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>0.18455005127500948</c:v>
+                  <c:v>0.1649777435487175</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>5.382242575E-2</c:v>
+                  <c:v>5.5541044889306848E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2175E-4</c:v>
+                  <c:v>3.1432020799665152E-4</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>0.18546313550000001</c:v>
+                  <c:v>0.16534798470990275</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>5.292982639502887E-2</c:v>
+                  <c:v>5.6980163284618496E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3767517031368551E-4</c:v>
+                  <c:v>3.1028884794872679E-4</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>0.18689797691757248</c:v>
+                  <c:v>0.16173329773259726</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1036,31 +1040,31 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>5.8321413778476675E-2</c:v>
+                  <c:v>1.7566111812234126E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2224153183883276E-4</c:v>
+                  <c:v>2.1047126777831851E-5</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>0.18806898183124701</c:v>
+                  <c:v>6.7791119645329551E-2</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>6.1588730250000001E-2</c:v>
+                  <c:v>1.6915469775438775E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1875000000000002E-4</c:v>
+                  <c:v>2.3848658253277152E-5</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>0.20071965175000001</c:v>
+                  <c:v>6.6489880032925996E-2</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>6.4846647261190576E-2</c:v>
+                  <c:v>1.73225694773264E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.3590497700328176E-4</c:v>
+                  <c:v>2.5813037933921526E-5</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>0.19616152812778326</c:v>
+                  <c:v>6.6561641805492816E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1179,31 +1183,31 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>5.537217341787485E-2</c:v>
+                  <c:v>3.5575207531043374E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6402434157869601E-4</c:v>
+                  <c:v>1.4124712728596351E-4</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>0.18430997351119877</c:v>
+                  <c:v>0.11690008200105323</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>5.891426525E-2</c:v>
+                  <c:v>3.6835158485267902E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6725000000000002E-4</c:v>
+                  <c:v>1.7654298876948601E-4</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>0.18867057674999999</c:v>
+                  <c:v>0.11059203771379972</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>5.8348547610741423E-2</c:v>
+                  <c:v>3.7755658957022376E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8616618703925553E-4</c:v>
+                  <c:v>1.6463409573710827E-4</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>0.18719591611301351</c:v>
+                  <c:v>0.11255541599561936</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1322,31 +1326,31 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>5.7424095622185797E-2</c:v>
+                  <c:v>3.936889891736315E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8557814217808277E-4</c:v>
+                  <c:v>1.5844278153463758E-4</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>0.18830905959505775</c:v>
+                  <c:v>0.11586878119299382</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>5.6496890750000001E-2</c:v>
+                  <c:v>3.5621356179477724E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7325E-4</c:v>
+                  <c:v>1.6162587748044265E-4</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>0.19751221050000001</c:v>
+                  <c:v>0.12124582702902903</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>5.942792604547803E-2</c:v>
+                  <c:v>3.6547073804922524E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8741396027771177E-4</c:v>
+                  <c:v>1.7146779014554E-4</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>0.19586358893234224</c:v>
+                  <c:v>0.11573952354247072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1465,31 +1469,31 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>5.804858612576845E-2</c:v>
+                  <c:v>3.7866347907153153E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7687975945980375E-4</c:v>
+                  <c:v>1.4686097302385264E-4</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>0.18524024669533926</c:v>
+                  <c:v>0.11794374393228496</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>5.8550099750000001E-2</c:v>
+                  <c:v>3.8019563972000375E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4625000000000005E-4</c:v>
+                  <c:v>1.7982007995041757E-4</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>0.19391353950000001</c:v>
+                  <c:v>0.11549096790116831</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>6.1433971245353769E-2</c:v>
+                  <c:v>3.7279211312868675E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.9557490838032853E-4</c:v>
+                  <c:v>1.5964163476799831E-4</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>0.18951698992633098</c:v>
+                  <c:v>0.1111956001143008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1608,31 +1612,31 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>5.4747682914292203E-2</c:v>
+                  <c:v>3.7077758541253378E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7272272429697503E-4</c:v>
+                  <c:v>1.5282893579674845E-4</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>0.18737878641091724</c:v>
+                  <c:v>0.11482511926176206</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>5.686105625E-2</c:v>
+                  <c:v>3.4436950692745244E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9425000000000002E-4</c:v>
+                  <c:v>1.5834878629951109E-4</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>0.19226924775000004</c:v>
+                  <c:v>0.11634689684166044</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>5.6342502410865677E-2</c:v>
+                  <c:v>3.7023521449076224E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.7800523893663876E-4</c:v>
+                  <c:v>1.7646025111464999E-4</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>0.19354251511902476</c:v>
+                  <c:v>0.11709933942378928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1984,7 +1988,911 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Initial benchmark'!$H$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mutation 0.2 Negative Inversion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Initial benchmark'!$I$79:$K$80</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Dataset B</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Dataset C</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Dataset A</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Best Elitism</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Initial benchmark'!$I$81:$K$81</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-39B9-418F-80AD-647BC1DC68A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Initial benchmark'!$H$82</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mutation 0.2 Uniform</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent2"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Initial benchmark'!$I$79:$K$80</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Dataset B</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Dataset C</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Dataset A</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Best Elitism</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Initial benchmark'!$I$82:$K$82</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-39B9-418F-80AD-647BC1DC68A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Initial benchmark'!$H$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection Roulette</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent3"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent3"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Initial benchmark'!$I$79:$K$80</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Dataset B</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Dataset C</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Dataset A</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Best Elitism</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Initial benchmark'!$I$83:$K$83</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-39B9-418F-80AD-647BC1DC68A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Initial benchmark'!$H$84</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection Tournament 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent4"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent4"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Initial benchmark'!$I$79:$K$80</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Dataset B</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Dataset C</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Dataset A</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Best Elitism</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Initial benchmark'!$I$84:$K$84</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-39B9-418F-80AD-647BC1DC68A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Initial benchmark'!$H$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Crosspoint Single Point</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent5"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent5"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Initial benchmark'!$I$79:$K$80</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Dataset B</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Dataset C</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Dataset A</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Best Elitism</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Initial benchmark'!$I$85:$K$85</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-39B9-418F-80AD-647BC1DC68A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Initial benchmark'!$H$86</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Crosspoint Double Point</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent6"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent6"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Initial benchmark'!$I$79:$K$80</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Dataset B</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Dataset C</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Dataset A</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Best Elitism</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Initial benchmark'!$I$86:$K$86</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-39B9-418F-80AD-647BC1DC68A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Initial benchmark'!$H$87</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Best Average Elitism</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Initial benchmark'!$I$79:$K$80</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Dataset B</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Dataset C</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Dataset A</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Best Elitism</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Initial benchmark'!$I$87:$K$87</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10666666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-39B9-418F-80AD-647BC1DC68A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="164"/>
+        <c:overlap val="-22"/>
+        <c:axId val="524636792"/>
+        <c:axId val="524637776"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="524636792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="524637776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="524637776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="524636792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2543,6 +3451,525 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2576,6 +4003,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{129EE20D-0A33-4DD6-A868-FCD335705659}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2881,10 +4344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q86"/>
+  <dimension ref="A1:Q87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G52" workbookViewId="0">
-      <selection activeCell="K86" sqref="H79:K86"/>
+    <sheetView tabSelected="1" topLeftCell="F55" workbookViewId="0">
+      <selection activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2912,7 +4375,7 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>5.6645100295076002E-2</v>
+        <v>1.8546576340387599E-2</v>
       </c>
       <c r="D1" s="1"/>
       <c r="G1" t="s">
@@ -2922,7 +4385,7 @@
         <v>1</v>
       </c>
       <c r="I1">
-        <v>6.4189132999999995E-2</v>
+        <v>1.667436945343E-2</v>
       </c>
       <c r="J1" s="1"/>
       <c r="M1" t="s">
@@ -2932,7 +4395,7 @@
         <v>1</v>
       </c>
       <c r="O1">
-        <v>6.3526506367118193E-2</v>
+        <v>1.7805553216387E-2</v>
       </c>
       <c r="P1" s="1"/>
     </row>
@@ -2944,7 +4407,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>5.1120783126621903E-2</v>
+        <v>5.3672156540087397E-2</v>
       </c>
       <c r="D2" s="1"/>
       <c r="G2" t="s">
@@ -2954,7 +4417,7 @@
         <v>2</v>
       </c>
       <c r="I2">
-        <v>5.3847968000000003E-2</v>
+        <v>5.0871301541559097E-2</v>
       </c>
       <c r="J2" s="1"/>
       <c r="M2" t="s">
@@ -2964,7 +4427,7 @@
         <v>2</v>
       </c>
       <c r="O2">
-        <v>5.0766310861948001E-2</v>
+        <v>5.8698431230654498E-2</v>
       </c>
       <c r="P2" s="1"/>
     </row>
@@ -2976,7 +4439,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>5.3885136372577802E-2</v>
+        <v>1.5995076711844299E-2</v>
       </c>
       <c r="D3" s="1"/>
       <c r="G3" t="s">
@@ -2986,7 +4449,7 @@
         <v>3</v>
       </c>
       <c r="I3">
-        <v>5.9761132000000002E-2</v>
+        <v>1.5750366028770699E-2</v>
       </c>
       <c r="J3" s="1"/>
       <c r="M3" t="s">
@@ -2996,7 +4459,7 @@
         <v>3</v>
       </c>
       <c r="O3">
-        <v>6.4671658545923397E-2</v>
+        <v>1.69429835466023E-2</v>
       </c>
       <c r="P3" s="1"/>
     </row>
@@ -3008,7 +4471,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>5.9837673877223697E-2</v>
+        <v>5.4087020531854199E-2</v>
       </c>
       <c r="D4" s="1"/>
       <c r="G4" t="s">
@@ -3018,7 +4481,7 @@
         <v>4</v>
       </c>
       <c r="I4">
-        <v>5.7858828000000001E-2</v>
+        <v>6.4044596917311805E-2</v>
       </c>
       <c r="J4" s="1"/>
       <c r="M4" t="s">
@@ -3028,7 +4491,7 @@
         <v>4</v>
       </c>
       <c r="O4">
-        <v>5.4429714667976102E-2</v>
+        <v>5.7575667834445697E-2</v>
       </c>
       <c r="P4" s="1"/>
     </row>
@@ -3040,7 +4503,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>5.89970005879836E-2</v>
+        <v>1.6353262769320202E-2</v>
       </c>
       <c r="D5" s="1"/>
       <c r="F5" s="2"/>
@@ -3051,7 +4514,7 @@
         <v>5</v>
       </c>
       <c r="I5">
-        <v>5.9023764999999999E-2</v>
+        <v>1.74895464728008E-2</v>
       </c>
       <c r="J5" s="1"/>
       <c r="M5" t="s">
@@ -3061,7 +4524,7 @@
         <v>5</v>
       </c>
       <c r="O5">
-        <v>6.9560696104028402E-2</v>
+        <v>1.4879136992662899E-2</v>
       </c>
       <c r="P5" s="1"/>
     </row>
@@ -3073,7 +4536,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>5.02263942996998E-2</v>
+        <v>5.9274269485697403E-2</v>
       </c>
       <c r="D6" s="1"/>
       <c r="G6" t="s">
@@ -3083,7 +4546,7 @@
         <v>6</v>
       </c>
       <c r="I6">
-        <v>5.0454234000000001E-2</v>
+        <v>5.3378538053897598E-2</v>
       </c>
       <c r="J6" s="1"/>
       <c r="M6" t="s">
@@ -3093,7 +4556,7 @@
         <v>6</v>
       </c>
       <c r="O6">
-        <v>4.8304312207898999E-2</v>
+        <v>5.2790066865394697E-2</v>
       </c>
       <c r="P6" s="1"/>
     </row>
@@ -3105,7 +4568,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>6.3758417858269301E-2</v>
+        <v>1.9369531427384401E-2</v>
       </c>
       <c r="D7" s="1"/>
       <c r="G7" t="s">
@@ -3115,7 +4578,7 @@
         <v>7</v>
       </c>
       <c r="I7">
-        <v>6.3380890999999995E-2</v>
+        <v>1.7747597146753599E-2</v>
       </c>
       <c r="J7" s="1"/>
       <c r="M7" t="s">
@@ -3125,7 +4588,7 @@
         <v>7</v>
       </c>
       <c r="O7">
-        <v>6.16277280276923E-2</v>
+        <v>1.9662604153653399E-2</v>
       </c>
       <c r="P7" s="1"/>
     </row>
@@ -3137,7 +4600,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>5.6714569742790502E-2</v>
+        <v>6.2478531987050598E-2</v>
       </c>
       <c r="D8" s="1"/>
       <c r="G8" t="s">
@@ -3147,7 +4610,7 @@
         <v>8</v>
       </c>
       <c r="I8">
-        <v>5.3128673000000001E-2</v>
+        <v>5.38697430444589E-2</v>
       </c>
       <c r="J8" s="1"/>
       <c r="M8" t="s">
@@ -3157,7 +4620,7 @@
         <v>8</v>
       </c>
       <c r="O8">
-        <v>5.8218967842292399E-2</v>
+        <v>5.8856487207979098E-2</v>
       </c>
       <c r="P8" s="1"/>
     </row>
@@ -3169,7 +4632,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>2.96675543259367E-4</v>
+        <v>1.8917158064629499E-5</v>
       </c>
       <c r="G9" t="s">
         <v>9</v>
@@ -3178,7 +4641,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="1">
-        <v>2.9799999999999998E-4</v>
+        <v>2.7098397702646501E-5</v>
       </c>
       <c r="M9" t="s">
         <v>9</v>
@@ -3187,7 +4650,7 @@
         <v>1</v>
       </c>
       <c r="O9" s="1">
-        <v>3.7418647587340501E-4</v>
+        <v>2.4967642049836199E-5</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -3198,7 +4661,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>2.2430275881909001E-4</v>
+        <v>2.6207510405234998E-4</v>
       </c>
       <c r="G10" t="s">
         <v>9</v>
@@ -3207,7 +4670,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="1">
-        <v>2.4600000000000002E-4</v>
+        <v>3.0623119066970801E-4</v>
       </c>
       <c r="M10" t="s">
         <v>9</v>
@@ -3216,7 +4679,7 @@
         <v>2</v>
       </c>
       <c r="O10" s="1">
-        <v>2.5096562432966801E-4</v>
+        <v>3.2557289032429703E-4</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -3227,7 +4690,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="1">
-        <v>3.0936438672772798E-4</v>
+        <v>1.90851849771746E-5</v>
       </c>
       <c r="G11" t="s">
         <v>9</v>
@@ -3236,7 +4699,7 @@
         <v>3</v>
       </c>
       <c r="I11" s="1">
-        <v>3.2600000000000001E-4</v>
+        <v>2.78906186967925E-5</v>
       </c>
       <c r="M11" t="s">
         <v>9</v>
@@ -3245,7 +4708,7 @@
         <v>3</v>
       </c>
       <c r="O11" s="1">
-        <v>2.74674483220856E-4</v>
+        <v>2.60531727543509E-5</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -3256,7 +4719,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="1">
-        <v>2.2575467750859899E-4</v>
+        <v>2.6491106204970001E-4</v>
       </c>
       <c r="G12" t="s">
         <v>9</v>
@@ -3265,7 +4728,7 @@
         <v>4</v>
       </c>
       <c r="I12" s="1">
-        <v>1.9900000000000001E-4</v>
+        <v>3.4495174800879702E-4</v>
       </c>
       <c r="M12" t="s">
         <v>9</v>
@@ -3274,7 +4737,7 @@
         <v>4</v>
       </c>
       <c r="O12" s="1">
-        <v>2.4483816473309299E-4</v>
+        <v>2.8194267781994902E-4</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -3285,7 +4748,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="1">
-        <v>3.5750436241415801E-4</v>
+        <v>1.97339273228761E-5</v>
       </c>
       <c r="G13" t="s">
         <v>9</v>
@@ -3294,7 +4757,7 @@
         <v>5</v>
       </c>
       <c r="I13" s="1">
-        <v>2.8800000000000001E-4</v>
+        <v>1.62213267046807E-5</v>
       </c>
       <c r="M13" t="s">
         <v>9</v>
@@ -3303,7 +4766,7 @@
         <v>5</v>
       </c>
       <c r="O13" s="1">
-        <v>3.2912551315810199E-4</v>
+        <v>2.4641734863808998E-5</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -3314,7 +4777,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="1">
-        <v>2.3180191668700401E-4</v>
+        <v>3.0370321741082199E-4</v>
       </c>
       <c r="G14" t="s">
         <v>9</v>
@@ -3323,7 +4786,7 @@
         <v>6</v>
       </c>
       <c r="I14" s="1">
-        <v>2.42E-4</v>
+        <v>2.7508904592255499E-4</v>
       </c>
       <c r="M14" t="s">
         <v>9</v>
@@ -3332,7 +4795,7 @@
         <v>6</v>
       </c>
       <c r="O14" s="1">
-        <v>2.2074741243526699E-4</v>
+        <v>3.2662533931226197E-4</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -3343,7 +4806,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="1">
-        <v>3.2542183495407799E-4</v>
+        <v>2.6452236746647199E-5</v>
       </c>
       <c r="G15" t="s">
         <v>9</v>
@@ -3352,7 +4815,7 @@
         <v>7</v>
       </c>
       <c r="I15" s="1">
-        <v>3.6299999999999999E-4</v>
+        <v>2.4184289908988899E-5</v>
       </c>
       <c r="M15" t="s">
         <v>9</v>
@@ -3361,7 +4824,7 @@
         <v>7</v>
       </c>
       <c r="O15" s="1">
-        <v>3.6563343576076398E-4</v>
+        <v>2.7589602067690001E-5</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -3372,7 +4835,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="1">
-        <v>2.27584454657091E-4</v>
+        <v>2.8388174465820499E-4</v>
       </c>
       <c r="G16" t="s">
         <v>9</v>
@@ -3381,7 +4844,7 @@
         <v>8</v>
       </c>
       <c r="I16" s="1">
-        <v>2.0000000000000001E-4</v>
+        <v>3.31008847385546E-4</v>
       </c>
       <c r="M16" t="s">
         <v>9</v>
@@ -3390,7 +4853,7 @@
         <v>8</v>
       </c>
       <c r="O16" s="1">
-        <v>2.3414947975671399E-4</v>
+        <v>3.0701448433839902E-4</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -3401,7 +4864,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>0.18252059422450101</v>
+        <v>6.6399343466895605E-2</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -3410,7 +4873,7 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0.192457723</v>
+        <v>6.9429590669948305E-2</v>
       </c>
       <c r="M17" t="s">
         <v>10</v>
@@ -3419,7 +4882,7 @@
         <v>1</v>
       </c>
       <c r="O17">
-        <v>0.18499849000025501</v>
+        <v>7.2690253678456399E-2</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -3430,7 +4893,7 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>0.18199874883596301</v>
+        <v>0.16260776536149801</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -3439,7 +4902,7 @@
         <v>2</v>
       </c>
       <c r="I18">
-        <v>0.18607531199999999</v>
+        <v>0.15213359464880499</v>
       </c>
       <c r="M18" t="s">
         <v>10</v>
@@ -3448,7 +4911,7 @@
         <v>2</v>
       </c>
       <c r="O18">
-        <v>0.184752405975635</v>
+        <v>0.15688681604372701</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -3459,7 +4922,7 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>0.192155355562867</v>
+        <v>6.7183415554458295E-2</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -3468,7 +4931,7 @@
         <v>3</v>
       </c>
       <c r="I19">
-        <v>0.19262232100000001</v>
+        <v>5.9638537792456599E-2</v>
       </c>
       <c r="M19" t="s">
         <v>10</v>
@@ -3477,7 +4940,7 @@
         <v>3</v>
       </c>
       <c r="O19">
-        <v>0.19988530905726501</v>
+        <v>6.5670964704373003E-2</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -3488,7 +4951,7 @@
         <v>4</v>
       </c>
       <c r="C20">
-        <v>0.18056519542146399</v>
+        <v>0.17140980362136099</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -3497,7 +4960,7 @@
         <v>4</v>
       </c>
       <c r="I20">
-        <v>0.18352695099999999</v>
+        <v>0.16116642774398901</v>
       </c>
       <c r="M20" t="s">
         <v>10</v>
@@ -3506,7 +4969,7 @@
         <v>4</v>
       </c>
       <c r="O20">
-        <v>0.17914745941889901</v>
+        <v>0.15497362955592101</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -3517,7 +4980,7 @@
         <v>5</v>
       </c>
       <c r="C21">
-        <v>0.19285404593264899</v>
+        <v>6.7171455172051295E-2</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -3526,7 +4989,7 @@
         <v>5</v>
       </c>
       <c r="I21">
-        <v>0.212425796</v>
+        <v>6.2035536428848903E-2</v>
       </c>
       <c r="M21" t="s">
         <v>10</v>
@@ -3535,7 +4998,7 @@
         <v>5</v>
       </c>
       <c r="O21">
-        <v>0.20722170992798999</v>
+        <v>6.3045207192645794E-2</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -3546,7 +5009,7 @@
         <v>6</v>
       </c>
       <c r="C22">
-        <v>0.190615109639868</v>
+        <v>0.15909903174317899</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -3555,7 +5018,7 @@
         <v>6</v>
       </c>
       <c r="I22">
-        <v>0.185006591</v>
+        <v>0.17875959968492999</v>
       </c>
       <c r="M22" t="s">
         <v>10</v>
@@ -3564,7 +5027,7 @@
         <v>6</v>
       </c>
       <c r="O22">
-        <v>0.19699174191757601</v>
+        <v>0.18099943530056101</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -3575,7 +5038,7 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <v>0.18474593160497099</v>
+        <v>7.0410264387912994E-2</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -3584,7 +5047,7 @@
         <v>7</v>
       </c>
       <c r="I23">
-        <v>0.20537276700000001</v>
+        <v>7.48558552404502E-2</v>
       </c>
       <c r="M23" t="s">
         <v>10</v>
@@ -3593,7 +5056,7 @@
         <v>7</v>
       </c>
       <c r="O23">
-        <v>0.19254060352562299</v>
+        <v>6.4840141646496097E-2</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -3604,7 +5067,7 @@
         <v>8</v>
       </c>
       <c r="C24">
-        <v>0.18502115120274301</v>
+        <v>0.166794373468832</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -3613,7 +5076,7 @@
         <v>8</v>
       </c>
       <c r="I24">
-        <v>0.18724368799999999</v>
+        <v>0.16933231676188701</v>
       </c>
       <c r="M24" t="s">
         <v>10</v>
@@ -3622,7 +5085,7 @@
         <v>8</v>
       </c>
       <c r="O24">
-        <v>0.18670030035818</v>
+        <v>0.15407331003017999</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -3692,21 +5155,21 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="I31" s="4" t="s">
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="I31" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="O31" s="4" t="s">
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="O31" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
@@ -3746,15 +5209,15 @@
       </c>
       <c r="C33">
         <f>AVERAGE(C2,C4,C6,C8)</f>
-        <v>5.4474855261583979E-2</v>
+        <v>5.7377994636172408E-2</v>
       </c>
       <c r="D33" s="1">
         <f>AVERAGE(C10,C12,C14,C16)</f>
-        <v>2.2736095191794602E-4</v>
+        <v>2.7864278204276925E-4</v>
       </c>
       <c r="E33">
         <f>AVERAGE(C18,C20,C22,C24)</f>
-        <v>0.18455005127500948</v>
+        <v>0.1649777435487175</v>
       </c>
       <c r="G33" t="s">
         <v>19</v>
@@ -3764,15 +5227,15 @@
       </c>
       <c r="I33">
         <f>AVERAGE(I2,I4,I6,I8)</f>
-        <v>5.382242575E-2</v>
+        <v>5.5541044889306848E-2</v>
       </c>
       <c r="J33" s="1">
         <f>AVERAGE(I10,I12,I14,I16)</f>
-        <v>2.2175E-4</v>
+        <v>3.1432020799665152E-4</v>
       </c>
       <c r="K33">
         <f>AVERAGE(I18,I20,I22,I24)</f>
-        <v>0.18546313550000001</v>
+        <v>0.16534798470990275</v>
       </c>
       <c r="M33" t="s">
         <v>19</v>
@@ -3782,15 +5245,15 @@
       </c>
       <c r="O33">
         <f>AVERAGE(O2,O4,O6,O8)</f>
-        <v>5.292982639502887E-2</v>
+        <v>5.6980163284618496E-2</v>
       </c>
       <c r="P33" s="1">
         <f>AVERAGE(O10,O12,O14,O16)</f>
-        <v>2.3767517031368551E-4</v>
+        <v>3.1028884794872679E-4</v>
       </c>
       <c r="Q33">
         <f>AVERAGE(O18,O20,O22,O24)</f>
-        <v>0.18689797691757248</v>
+        <v>0.16173329773259726</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -3799,45 +5262,45 @@
       </c>
       <c r="C34">
         <f>AVERAGE(C1,C3,C5,C7)</f>
-        <v>5.8321413778476675E-2</v>
+        <v>1.7566111812234126E-2</v>
       </c>
       <c r="D34" s="1">
         <f>AVERAGE(C9,C11,C13,C15)</f>
-        <v>3.2224153183883276E-4</v>
+        <v>2.1047126777831851E-5</v>
       </c>
       <c r="E34">
         <f>AVERAGE(C17,C19,C21,C23)</f>
-        <v>0.18806898183124701</v>
+        <v>6.7791119645329551E-2</v>
       </c>
       <c r="H34" t="s">
         <v>12</v>
       </c>
       <c r="I34">
         <f>AVERAGE(I1,I3,I5,I7)</f>
-        <v>6.1588730250000001E-2</v>
+        <v>1.6915469775438775E-2</v>
       </c>
       <c r="J34" s="1">
         <f>AVERAGE(I9,I11,I13,I15)</f>
-        <v>3.1875000000000002E-4</v>
+        <v>2.3848658253277152E-5</v>
       </c>
       <c r="K34">
         <f>AVERAGE(I17,I19,I21,I23)</f>
-        <v>0.20071965175000001</v>
+        <v>6.6489880032925996E-2</v>
       </c>
       <c r="N34" t="s">
         <v>12</v>
       </c>
       <c r="O34">
         <f>AVERAGE(O1,O3,O5,O7)</f>
-        <v>6.4846647261190576E-2</v>
+        <v>1.73225694773264E-2</v>
       </c>
       <c r="P34" s="1">
         <f>AVERAGE(O9,O11,O13,O15)</f>
-        <v>3.3590497700328176E-4</v>
+        <v>2.5813037933921526E-5</v>
       </c>
       <c r="Q34">
         <f>AVERAGE(O17,O19,O21,O23)</f>
-        <v>0.19616152812778326</v>
+        <v>6.6561641805492816E-2</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -3849,15 +5312,15 @@
       </c>
       <c r="C35">
         <f>AVERAGE(C1,C2,C3,C4)</f>
-        <v>5.537217341787485E-2</v>
+        <v>3.5575207531043374E-2</v>
       </c>
       <c r="D35" s="1">
         <f>AVERAGE(C9,C10,C11,C12)</f>
-        <v>2.6402434157869601E-4</v>
+        <v>1.4124712728596351E-4</v>
       </c>
       <c r="E35">
         <f>AVERAGE(C17,C18,C19,C20)</f>
-        <v>0.18430997351119877</v>
+        <v>0.11690008200105323</v>
       </c>
       <c r="G35" t="s">
         <v>13</v>
@@ -3867,15 +5330,15 @@
       </c>
       <c r="I35">
         <f>AVERAGE(I1,I2,I3,I4)</f>
-        <v>5.891426525E-2</v>
+        <v>3.6835158485267902E-2</v>
       </c>
       <c r="J35" s="1">
         <f>AVERAGE(I9,I10,I11,I12)</f>
-        <v>2.6725000000000002E-4</v>
+        <v>1.7654298876948601E-4</v>
       </c>
       <c r="K35">
         <f>AVERAGE(I17,I18,I19,I20)</f>
-        <v>0.18867057674999999</v>
+        <v>0.11059203771379972</v>
       </c>
       <c r="M35" t="s">
         <v>13</v>
@@ -3885,15 +5348,15 @@
       </c>
       <c r="O35">
         <f>AVERAGE(O1,O2,O3,O4)</f>
-        <v>5.8348547610741423E-2</v>
+        <v>3.7755658957022376E-2</v>
       </c>
       <c r="P35" s="1">
         <f>AVERAGE(O9,O10,O11,O12)</f>
-        <v>2.8616618703925553E-4</v>
+        <v>1.6463409573710827E-4</v>
       </c>
       <c r="Q35">
         <f>AVERAGE(O17,O18,O19,O20)</f>
-        <v>0.18719591611301351</v>
+        <v>0.11255541599561936</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -3902,45 +5365,45 @@
       </c>
       <c r="C36">
         <f>AVERAGE(C5,C6,C7,C8)</f>
-        <v>5.7424095622185797E-2</v>
+        <v>3.936889891736315E-2</v>
       </c>
       <c r="D36" s="1">
         <f>AVERAGE(C13,C14,C15,C16)</f>
-        <v>2.8557814217808277E-4</v>
+        <v>1.5844278153463758E-4</v>
       </c>
       <c r="E36">
         <f>AVERAGE(C21,C22,C23,C24)</f>
-        <v>0.18830905959505775</v>
+        <v>0.11586878119299382</v>
       </c>
       <c r="H36" t="s">
         <v>18</v>
       </c>
       <c r="I36">
         <f>AVERAGE(I5,I6,I7,I8)</f>
-        <v>5.6496890750000001E-2</v>
+        <v>3.5621356179477724E-2</v>
       </c>
       <c r="J36" s="1">
         <f>AVERAGE(I13,I14,I15,I16)</f>
-        <v>2.7325E-4</v>
+        <v>1.6162587748044265E-4</v>
       </c>
       <c r="K36">
         <f>AVERAGE(I21,I22,I23,I24)</f>
-        <v>0.19751221050000001</v>
+        <v>0.12124582702902903</v>
       </c>
       <c r="N36" t="s">
         <v>18</v>
       </c>
       <c r="O36">
         <f>AVERAGE(O5,O6,O7,O8)</f>
-        <v>5.942792604547803E-2</v>
+        <v>3.6547073804922524E-2</v>
       </c>
       <c r="P36" s="1">
         <f>AVERAGE(O13,O14,O15,O16)</f>
-        <v>2.8741396027771177E-4</v>
+        <v>1.7146779014554E-4</v>
       </c>
       <c r="Q36">
         <f>AVERAGE(O21,O22,O23,O24)</f>
-        <v>0.19586358893234224</v>
+        <v>0.11573952354247072</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
@@ -3952,15 +5415,15 @@
       </c>
       <c r="C37">
         <f>AVERAGE(C1,C4,C5,C8)</f>
-        <v>5.804858612576845E-2</v>
+        <v>3.7866347907153153E-2</v>
       </c>
       <c r="D37" s="1">
         <f>AVERAGE(C9,C12,C13,C16)</f>
-        <v>2.7687975945980375E-4</v>
+        <v>1.4686097302385264E-4</v>
       </c>
       <c r="E37">
         <f>AVERAGE(C17,C20,C21,C24)</f>
-        <v>0.18524024669533926</v>
+        <v>0.11794374393228496</v>
       </c>
       <c r="G37" t="s">
         <v>15</v>
@@ -3970,15 +5433,15 @@
       </c>
       <c r="I37">
         <f>AVERAGE(I1,I4,I5,I8)</f>
-        <v>5.8550099750000001E-2</v>
+        <v>3.8019563972000375E-2</v>
       </c>
       <c r="J37" s="1">
         <f>AVERAGE(I9,I12,I13,I16)</f>
-        <v>2.4625000000000005E-4</v>
+        <v>1.7982007995041757E-4</v>
       </c>
       <c r="K37">
         <f>AVERAGE(I17,I20,I21,I24)</f>
-        <v>0.19391353950000001</v>
+        <v>0.11549096790116831</v>
       </c>
       <c r="M37" t="s">
         <v>15</v>
@@ -3988,15 +5451,15 @@
       </c>
       <c r="O37">
         <f>AVERAGE(O1,O4,O5,O8)</f>
-        <v>6.1433971245353769E-2</v>
+        <v>3.7279211312868675E-2</v>
       </c>
       <c r="P37" s="1">
         <f>AVERAGE(O9,O12,O13,O16)</f>
-        <v>2.9557490838032853E-4</v>
+        <v>1.5964163476799831E-4</v>
       </c>
       <c r="Q37">
         <f>AVERAGE(O17,O20,O21,O24)</f>
-        <v>0.18951698992633098</v>
+        <v>0.1111956001143008</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
@@ -4005,61 +5468,61 @@
       </c>
       <c r="C38">
         <f>AVERAGE(C2,C3,C6,C7)</f>
-        <v>5.4747682914292203E-2</v>
+        <v>3.7077758541253378E-2</v>
       </c>
       <c r="D38" s="1">
         <f>AVERAGE(C10,C11,C14,C15)</f>
-        <v>2.7272272429697503E-4</v>
+        <v>1.5282893579674845E-4</v>
       </c>
       <c r="E38">
         <f>AVERAGE(C18,C19,C22,C23)</f>
-        <v>0.18737878641091724</v>
+        <v>0.11482511926176206</v>
       </c>
       <c r="H38" t="s">
         <v>17</v>
       </c>
       <c r="I38">
         <f>AVERAGE(I2,I3,I6,I7)</f>
-        <v>5.686105625E-2</v>
+        <v>3.4436950692745244E-2</v>
       </c>
       <c r="J38" s="1">
         <f>AVERAGE(I10,I11,I14,I15)</f>
-        <v>2.9425000000000002E-4</v>
+        <v>1.5834878629951109E-4</v>
       </c>
       <c r="K38">
         <f>AVERAGE(I18,I19,I22,I23)</f>
-        <v>0.19226924775000004</v>
+        <v>0.11634689684166044</v>
       </c>
       <c r="N38" t="s">
         <v>17</v>
       </c>
       <c r="O38">
         <f>AVERAGE(O2,O3,O6,O7)</f>
-        <v>5.6342502410865677E-2</v>
+        <v>3.7023521449076224E-2</v>
       </c>
       <c r="P38" s="1">
         <f>AVERAGE(O10,O11,O14,O15)</f>
-        <v>2.7800523893663876E-4</v>
+        <v>1.7646025111464999E-4</v>
       </c>
       <c r="Q38">
         <f>AVERAGE(O18,O19,O22,O23)</f>
-        <v>0.19354251511902476</v>
+        <v>0.11709933942378928</v>
       </c>
     </row>
     <row r="79" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="J79" t="s">
+      <c r="I79" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="80" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I80" s="3" t="s">
+      <c r="I80" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K80" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K80" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="81" spans="8:11" x14ac:dyDescent="0.25">
@@ -4067,13 +5530,13 @@
         <v>34</v>
       </c>
       <c r="I81" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="J81" s="5">
         <v>0.2</v>
       </c>
-      <c r="J81" s="5">
+      <c r="K81" s="5">
         <v>0.1</v>
-      </c>
-      <c r="K81" s="5">
-        <v>0.04</v>
       </c>
     </row>
     <row r="82" spans="8:11" x14ac:dyDescent="0.25">
@@ -4087,7 +5550,7 @@
         <v>0.1</v>
       </c>
       <c r="K82" s="5">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="83" spans="8:11" x14ac:dyDescent="0.25">
@@ -4098,7 +5561,7 @@
         <v>0.04</v>
       </c>
       <c r="J83" s="5">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="K83" s="5">
         <v>0.04</v>
@@ -4109,13 +5572,13 @@
         <v>37</v>
       </c>
       <c r="I84" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="J84" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="K84" s="5">
         <v>0.1</v>
-      </c>
-      <c r="J84" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="K84" s="5">
-        <v>0.04</v>
       </c>
     </row>
     <row r="85" spans="8:11" x14ac:dyDescent="0.25">
@@ -4126,10 +5589,10 @@
         <v>0.04</v>
       </c>
       <c r="J85" s="5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K85" s="5">
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="86" spans="8:11" x14ac:dyDescent="0.25">
@@ -4143,7 +5606,23 @@
         <v>0.04</v>
       </c>
       <c r="K86" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="87" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H87" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I87" s="3">
         <v>0.04</v>
+      </c>
+      <c r="J87" s="3">
+        <f>AVERAGE(J81:J86)</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K87" s="3">
+        <f>AVERAGE(K81:K86)</f>
+        <v>0.10666666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/Data Gathered and Results/Test #3 Elitism (4,10,20 Percent)/Results.xlsx
+++ b/Data Gathered and Results/Test #3 Elitism (4,10,20 Percent)/Results.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mark\git\SET10107Coursework\Data Gathered and Results\Test #3 Elitism (4,10,20 Percent)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\git\SET10107Coursework\Data Gathered and Results\Test #3 Elitism (4,10,20 Percent)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12870" yWindow="0" windowWidth="16065" windowHeight="11610"/>
+    <workbookView xWindow="13824" yWindow="0" windowWidth="16068" windowHeight="11616"/>
   </bookViews>
   <sheets>
     <sheet name="Initial benchmark" sheetId="1" r:id="rId1"/>
@@ -151,6 +151,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -628,7 +631,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -642,6 +645,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -894,7 +898,7 @@
               </c:extLst>
               <c:f>('Initial benchmark'!$C$33:$F$33,'Initial benchmark'!$I$33:$L$33,'Initial benchmark'!$O$33:$Q$33)</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.000000000</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>5.7377994636172408E-2</c:v>
@@ -1037,7 +1041,7 @@
               </c:extLst>
               <c:f>('Initial benchmark'!$C$34:$F$34,'Initial benchmark'!$I$34:$L$34,'Initial benchmark'!$O$34:$Q$34)</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.000000000</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>1.7566111812234126E-2</c:v>
@@ -1180,7 +1184,7 @@
               </c:extLst>
               <c:f>('Initial benchmark'!$C$35:$F$35,'Initial benchmark'!$I$35:$L$35,'Initial benchmark'!$O$35:$Q$35)</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.000000000</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>3.5575207531043374E-2</c:v>
@@ -1323,7 +1327,7 @@
               </c:extLst>
               <c:f>('Initial benchmark'!$C$36:$F$36,'Initial benchmark'!$I$36:$L$36,'Initial benchmark'!$O$36:$Q$36)</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.000000000</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>3.936889891736315E-2</c:v>
@@ -1466,7 +1470,7 @@
               </c:extLst>
               <c:f>('Initial benchmark'!$C$37:$F$37,'Initial benchmark'!$I$37:$L$37,'Initial benchmark'!$O$37:$Q$37)</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.000000000</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>3.7866347907153153E-2</c:v>
@@ -1609,7 +1613,7 @@
               </c:extLst>
               <c:f>('Initial benchmark'!$C$38:$F$38,'Initial benchmark'!$I$38:$L$38,'Initial benchmark'!$O$38:$Q$38)</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.000000000</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>3.7077758541253378E-2</c:v>
@@ -4011,15 +4015,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:colOff>650420</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>75520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>21770</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4346,28 +4350,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F55" workbookViewId="0">
-      <selection activeCell="I89" sqref="I89"/>
+    <sheetView tabSelected="1" topLeftCell="F58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="41.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" customWidth="1"/>
-    <col min="8" max="8" width="33.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="41.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="32.109375" customWidth="1"/>
+    <col min="8" max="8" width="33.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
-    <col min="13" max="13" width="29.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" customWidth="1"/>
+    <col min="13" max="13" width="29.44140625" customWidth="1"/>
     <col min="14" max="14" width="23" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" customWidth="1"/>
+    <col min="16" max="16" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4399,7 +4404,7 @@
       </c>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4431,7 +4436,7 @@
       </c>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4463,7 +4468,7 @@
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -4495,7 +4500,7 @@
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -4528,7 +4533,7 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -4560,7 +4565,7 @@
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -4592,7 +4597,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -4624,7 +4629,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4653,7 +4658,7 @@
         <v>2.4967642049836199E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4682,7 +4687,7 @@
         <v>3.2557289032429703E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4711,7 +4716,7 @@
         <v>2.60531727543509E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -4740,7 +4745,7 @@
         <v>2.8194267781994902E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -4769,7 +4774,7 @@
         <v>2.4641734863808998E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -4798,7 +4803,7 @@
         <v>3.2662533931226197E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -4827,7 +4832,7 @@
         <v>2.7589602067690001E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -4856,7 +4861,7 @@
         <v>3.0701448433839902E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -4885,7 +4890,7 @@
         <v>7.2690253678456399E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -4914,7 +4919,7 @@
         <v>0.15688681604372701</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -4943,7 +4948,7 @@
         <v>6.5670964704373003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -4972,7 +4977,7 @@
         <v>0.15497362955592101</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -5001,7 +5006,7 @@
         <v>6.3045207192645794E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -5030,7 +5035,7 @@
         <v>0.18099943530056101</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -5059,7 +5064,7 @@
         <v>6.4840141646496097E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -5088,7 +5093,7 @@
         <v>0.15407331003017999</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -5099,7 +5104,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -5110,7 +5115,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -5121,7 +5126,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -5132,7 +5137,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -5143,7 +5148,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -5154,7 +5159,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C31" s="6" t="s">
         <v>27</v>
       </c>
@@ -5171,7 +5176,7 @@
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>0</v>
       </c>
@@ -5200,7 +5205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -5211,7 +5216,7 @@
         <f>AVERAGE(C2,C4,C6,C8)</f>
         <v>5.7377994636172408E-2</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="7">
         <f>AVERAGE(C10,C12,C14,C16)</f>
         <v>2.7864278204276925E-4</v>
       </c>
@@ -5229,7 +5234,7 @@
         <f>AVERAGE(I2,I4,I6,I8)</f>
         <v>5.5541044889306848E-2</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33" s="7">
         <f>AVERAGE(I10,I12,I14,I16)</f>
         <v>3.1432020799665152E-4</v>
       </c>
@@ -5247,7 +5252,7 @@
         <f>AVERAGE(O2,O4,O6,O8)</f>
         <v>5.6980163284618496E-2</v>
       </c>
-      <c r="P33" s="1">
+      <c r="P33" s="7">
         <f>AVERAGE(O10,O12,O14,O16)</f>
         <v>3.1028884794872679E-4</v>
       </c>
@@ -5256,7 +5261,7 @@
         <v>0.16173329773259726</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>12</v>
       </c>
@@ -5264,7 +5269,7 @@
         <f>AVERAGE(C1,C3,C5,C7)</f>
         <v>1.7566111812234126E-2</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="7">
         <f>AVERAGE(C9,C11,C13,C15)</f>
         <v>2.1047126777831851E-5</v>
       </c>
@@ -5279,7 +5284,7 @@
         <f>AVERAGE(I1,I3,I5,I7)</f>
         <v>1.6915469775438775E-2</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34" s="7">
         <f>AVERAGE(I9,I11,I13,I15)</f>
         <v>2.3848658253277152E-5</v>
       </c>
@@ -5294,7 +5299,7 @@
         <f>AVERAGE(O1,O3,O5,O7)</f>
         <v>1.73225694773264E-2</v>
       </c>
-      <c r="P34" s="1">
+      <c r="P34" s="7">
         <f>AVERAGE(O9,O11,O13,O15)</f>
         <v>2.5813037933921526E-5</v>
       </c>
@@ -5303,7 +5308,7 @@
         <v>6.6561641805492816E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -5314,7 +5319,7 @@
         <f>AVERAGE(C1,C2,C3,C4)</f>
         <v>3.5575207531043374E-2</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="7">
         <f>AVERAGE(C9,C10,C11,C12)</f>
         <v>1.4124712728596351E-4</v>
       </c>
@@ -5332,7 +5337,7 @@
         <f>AVERAGE(I1,I2,I3,I4)</f>
         <v>3.6835158485267902E-2</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J35" s="7">
         <f>AVERAGE(I9,I10,I11,I12)</f>
         <v>1.7654298876948601E-4</v>
       </c>
@@ -5350,7 +5355,7 @@
         <f>AVERAGE(O1,O2,O3,O4)</f>
         <v>3.7755658957022376E-2</v>
       </c>
-      <c r="P35" s="1">
+      <c r="P35" s="7">
         <f>AVERAGE(O9,O10,O11,O12)</f>
         <v>1.6463409573710827E-4</v>
       </c>
@@ -5359,7 +5364,7 @@
         <v>0.11255541599561936</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>18</v>
       </c>
@@ -5367,7 +5372,7 @@
         <f>AVERAGE(C5,C6,C7,C8)</f>
         <v>3.936889891736315E-2</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="7">
         <f>AVERAGE(C13,C14,C15,C16)</f>
         <v>1.5844278153463758E-4</v>
       </c>
@@ -5382,7 +5387,7 @@
         <f>AVERAGE(I5,I6,I7,I8)</f>
         <v>3.5621356179477724E-2</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J36" s="7">
         <f>AVERAGE(I13,I14,I15,I16)</f>
         <v>1.6162587748044265E-4</v>
       </c>
@@ -5397,7 +5402,7 @@
         <f>AVERAGE(O5,O6,O7,O8)</f>
         <v>3.6547073804922524E-2</v>
       </c>
-      <c r="P36" s="1">
+      <c r="P36" s="7">
         <f>AVERAGE(O13,O14,O15,O16)</f>
         <v>1.7146779014554E-4</v>
       </c>
@@ -5406,7 +5411,7 @@
         <v>0.11573952354247072</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -5417,7 +5422,7 @@
         <f>AVERAGE(C1,C4,C5,C8)</f>
         <v>3.7866347907153153E-2</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="7">
         <f>AVERAGE(C9,C12,C13,C16)</f>
         <v>1.4686097302385264E-4</v>
       </c>
@@ -5435,7 +5440,7 @@
         <f>AVERAGE(I1,I4,I5,I8)</f>
         <v>3.8019563972000375E-2</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J37" s="7">
         <f>AVERAGE(I9,I12,I13,I16)</f>
         <v>1.7982007995041757E-4</v>
       </c>
@@ -5453,7 +5458,7 @@
         <f>AVERAGE(O1,O4,O5,O8)</f>
         <v>3.7279211312868675E-2</v>
       </c>
-      <c r="P37" s="1">
+      <c r="P37" s="7">
         <f>AVERAGE(O9,O12,O13,O16)</f>
         <v>1.5964163476799831E-4</v>
       </c>
@@ -5462,7 +5467,7 @@
         <v>0.1111956001143008</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>17</v>
       </c>
@@ -5470,7 +5475,7 @@
         <f>AVERAGE(C2,C3,C6,C7)</f>
         <v>3.7077758541253378E-2</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="7">
         <f>AVERAGE(C10,C11,C14,C15)</f>
         <v>1.5282893579674845E-4</v>
       </c>
@@ -5485,7 +5490,7 @@
         <f>AVERAGE(I2,I3,I6,I7)</f>
         <v>3.4436950692745244E-2</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J38" s="7">
         <f>AVERAGE(I10,I11,I14,I15)</f>
         <v>1.5834878629951109E-4</v>
       </c>
@@ -5500,7 +5505,7 @@
         <f>AVERAGE(O2,O3,O6,O7)</f>
         <v>3.7023521449076224E-2</v>
       </c>
-      <c r="P38" s="1">
+      <c r="P38" s="7">
         <f>AVERAGE(O10,O11,O14,O15)</f>
         <v>1.7646025111464999E-4</v>
       </c>
@@ -5509,12 +5514,12 @@
         <v>0.11709933942378928</v>
       </c>
     </row>
-    <row r="79" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I79" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I80" s="4" t="s">
         <v>32</v>
       </c>
@@ -5525,7 +5530,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H81" t="s">
         <v>34</v>
       </c>
@@ -5539,7 +5544,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="82" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H82" t="s">
         <v>35</v>
       </c>
@@ -5553,7 +5558,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="83" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H83" t="s">
         <v>36</v>
       </c>
@@ -5567,7 +5572,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="84" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H84" t="s">
         <v>37</v>
       </c>
@@ -5581,7 +5586,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="85" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H85" t="s">
         <v>38</v>
       </c>
@@ -5595,7 +5600,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="86" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H86" t="s">
         <v>39</v>
       </c>
@@ -5609,7 +5614,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="87" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H87" s="2" t="s">
         <v>41</v>
       </c>
